--- a/biology/Zoologie/Delia_(diptère)/Delia_(diptère).xlsx
+++ b/biology/Zoologie/Delia_(diptère)/Delia_(diptère).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Delia_(dipt%C3%A8re)</t>
+          <t>Delia_(diptère)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delia est un genre d'insectes diptères brachycères de la famille des Anthomyiidae à répartition cosmopolite, qui regroupe environ 300 espèces.
 Ce genre comprend de nombreuses espèces de mouches nuisibles aux cultures en phase de germination (mouche des semis).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Delia_(dipt%C3%A8re)</t>
+          <t>Delia_(diptère)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (11 sept. 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (11 sept. 2013) :
 Delia abruptiseta
 Delia absidata
 Delia abstracta
@@ -847,7 +861,7 @@
 Delia vulgaris
 Delia winnemana
 Delia xanthobasis
-Selon ITIS      (11 sept. 2013)[2] :
+Selon ITIS      (11 sept. 2013) :
 Delia abruptiseta (Ringdahl, 1935)
 Delia abstracta (Huckett, 1965)
 Delia aemene (Walker, 1849)
@@ -960,7 +974,7 @@
 Delia vesicata (Huckett, 1952)
 Delia winnemana (Malloch, 1919)
 Delia xanthobasis (Huckett, 1965)
-Selon NCBI  (6 novembre 2022)[3] :
+Selon NCBI  (6 novembre 2022) :
 Delia alaba
 Delia albula
 Delia antiqua
@@ -996,7 +1010,7 @@
 Delia sileni
 Delia tarsata
 Delia tenuiventris
-Selon World Register of Marine Species                               (6 novembre 2022)[4] :
+Selon World Register of Marine Species                               (6 novembre 2022) :
 Delia antiqua (Meigen, 1826)
 Delia platura (Meigen, 1826)
 Delia radicum (Linnaeus, 1758)
